--- a/me/1.Mot-so-dieu-can-biet-ve-Javascript/2.Execution-Context.xlsx
+++ b/me/1.Mot-so-dieu-can-biet-ve-Javascript/2.Execution-Context.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/javascript_advance/me/1.Mot-so-dieu-can-biet-ve-Javascript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD2ACC-DD15-CE45-8682-0A57A7A7F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32259D6-CF65-5640-945E-5521EBE9DD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39220" yWindow="1880" windowWidth="31080" windowHeight="17140" xr2:uid="{A7015A06-636C-1A46-BB37-EFA4328BC76A}"/>
   </bookViews>
@@ -43,24 +43,12 @@
     <t>Execution: Thực thi</t>
   </si>
   <si>
-    <t>Khi 1 đoạn chương trình Javascript được chạy thì Javascript Engine luôn luôn khởi tạo mới 1 Execution Context để theo dõi và và quản lý và giám sát trình tự thực thi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đoạn chương trình này có thể là 1 chương trình con hoặc toàn bộ ứng dụng khi khởi chạy lần đầu tiên </t>
   </si>
   <si>
-    <t>Chương trình chính(App): Global Execution Context(ngữ cảnh thực thi toàn cục)</t>
-  </si>
-  <si>
-    <t>Chương trình con: Local Execution Context(ngữ cảnh thực thi cục bộ). Trong Js nói riêng hay lập trình nói chung thì các chương trình con mình coi đó là các function hay các method của object nào đó</t>
-  </si>
-  <si>
     <t>App chỉ có 1 ngữ cảnh thực thi toàn cục và có thể có nhiều ngữ cảnh thực thi cục bộ</t>
   </si>
   <si>
-    <t xml:space="preserve">Khi Js Engine tạo ra một Execution Context thì nó luôn luôn qua 2 giai đoạn: Creation Phase(giai đoạn khởi tạo) và Execution Phase(giai đoạn thực thi) </t>
-  </si>
-  <si>
     <t>Creation Phase: Làm nhiều việc trong đó có việc setup memory để khởi tạo các biến toàn cục hay các biến local lưu trữ các biến, hàm</t>
   </si>
   <si>
@@ -68,19 +56,134 @@
   </si>
   <si>
     <t>Execution Context(ngữ cảnh thực thi)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi 1 đoạn chương trình Javascript được chạy thì Javascript Engine luôn luôn khởi tạo mới 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Execution Context </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>để theo dõi và và quản lý và giám sát trình tự thực thi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chương trình chính(App): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Global Execution Context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ngữ cảnh thực thi toàn cục)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chương trình con: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Local Execution Context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ngữ cảnh thực thi cục bộ). Trong Js nói riêng hay lập trình nói chung thì các chương trình con mình coi đó là các function hay các method của object nào đó</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi Js Engine tạo ra một Execution Context thì nó luôn luôn qua 2 giai đoạn: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Creation Phase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(giai đoạn khởi tạo) và </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Execution Phase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(giai đoạn thực thi) </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,6 +269,112 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6486CD-A5AA-FFC0-8E98-A867FA132EBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3111500" y="2146300"/>
+          <a:ext cx="2501900" cy="4749800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA93AA4-EAC8-B78A-1C0E-A69D22DBB021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3276600" y="2197100"/>
+          <a:ext cx="4800600" cy="5118100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -470,15 +679,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A384C10-AAB4-8740-A825-4B8616F8F931}">
   <dimension ref="B3:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
@@ -493,42 +702,42 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
